--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sdc2-Ptprj.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sdc2-Ptprj.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Sdc2</t>
+  </si>
+  <si>
+    <t>Ptprj</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sdc2</t>
-  </si>
-  <si>
-    <t>Ptprj</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="H2">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="I2">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="J2">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.365419</v>
+        <v>1.135186</v>
       </c>
       <c r="N2">
-        <v>4.096257</v>
+        <v>3.405558</v>
       </c>
       <c r="O2">
-        <v>0.009198204086533742</v>
+        <v>0.006415563145489937</v>
       </c>
       <c r="P2">
-        <v>0.009372688028951477</v>
+        <v>0.00646579730555003</v>
       </c>
       <c r="Q2">
-        <v>2.063303766766</v>
+        <v>1.146379690750667</v>
       </c>
       <c r="R2">
-        <v>18.569733900894</v>
+        <v>10.317417216756</v>
       </c>
       <c r="S2">
-        <v>0.0002062098316608322</v>
+        <v>8.682910449462344E-05</v>
       </c>
       <c r="T2">
-        <v>0.0002328135826384404</v>
+        <v>9.973628584432929E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="H3">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="I3">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="J3">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>14.186264</v>
       </c>
       <c r="O3">
-        <v>0.03185546011821195</v>
+        <v>0.02672480471352731</v>
       </c>
       <c r="P3">
-        <v>0.03245973745503403</v>
+        <v>0.02693406118674866</v>
       </c>
       <c r="Q3">
-        <v>7.145687379365334</v>
+        <v>4.775383340183112</v>
       </c>
       <c r="R3">
-        <v>64.311186414288</v>
+        <v>42.978450061648</v>
       </c>
       <c r="S3">
-        <v>0.0007141512632962544</v>
+        <v>0.0003616971430949978</v>
       </c>
       <c r="T3">
-        <v>0.0008062860670350356</v>
+        <v>0.0004154635690735904</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="H4">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="I4">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="J4">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.80666966666666</v>
+        <v>84.55360633333333</v>
       </c>
       <c r="N4">
-        <v>188.420009</v>
+        <v>253.660819</v>
       </c>
       <c r="O4">
-        <v>0.4230998437765317</v>
+        <v>0.4778591355164685</v>
       </c>
       <c r="P4">
-        <v>0.4311257723256207</v>
+        <v>0.4816007949398642</v>
       </c>
       <c r="Q4">
-        <v>94.90803782667534</v>
+        <v>85.38736126085089</v>
       </c>
       <c r="R4">
-        <v>854.172340440078</v>
+        <v>768.486251347658</v>
       </c>
       <c r="S4">
-        <v>0.009485258941863877</v>
+        <v>0.006467410556256203</v>
       </c>
       <c r="T4">
-        <v>0.01070898074414208</v>
+        <v>0.007428793739907139</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="H5">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="I5">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="J5">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.290399499999999</v>
+        <v>4.124113</v>
       </c>
       <c r="N5">
-        <v>16.580799</v>
+        <v>8.248226000000001</v>
       </c>
       <c r="O5">
-        <v>0.05584863441910307</v>
+        <v>0.02330764066032874</v>
       </c>
       <c r="P5">
-        <v>0.03793869776670523</v>
+        <v>0.01566009371925767</v>
       </c>
       <c r="Q5">
-        <v>12.527738750043</v>
+        <v>4.164779503588667</v>
       </c>
       <c r="R5">
-        <v>75.166432500258</v>
+        <v>24.988677021532</v>
       </c>
       <c r="S5">
-        <v>0.001252041963160061</v>
+        <v>0.0003154487798692329</v>
       </c>
       <c r="T5">
-        <v>0.0009423811099249562</v>
+        <v>0.0002415602453532223</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="H6">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="I6">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="J6">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>71.25284333333333</v>
+        <v>82.400874</v>
       </c>
       <c r="N6">
-        <v>213.75853</v>
+        <v>247.202622</v>
       </c>
       <c r="O6">
-        <v>0.4799978575996197</v>
+        <v>0.4656928559641855</v>
       </c>
       <c r="P6">
-        <v>0.4891031044236887</v>
+        <v>0.4693392528485795</v>
       </c>
       <c r="Q6">
-        <v>107.6711691008067</v>
+        <v>83.213401551556</v>
       </c>
       <c r="R6">
-        <v>969.0405219072601</v>
+        <v>748.920613964004</v>
       </c>
       <c r="S6">
-        <v>0.01076082640502463</v>
+        <v>0.006302750473485666</v>
       </c>
       <c r="T6">
-        <v>0.01214911300458603</v>
+        <v>0.0072396568695232</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>138.461282</v>
       </c>
       <c r="I7">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="J7">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.365419</v>
+        <v>1.135186</v>
       </c>
       <c r="N7">
-        <v>4.096257</v>
+        <v>3.405558</v>
       </c>
       <c r="O7">
-        <v>0.009198204086533742</v>
+        <v>0.006415563145489937</v>
       </c>
       <c r="P7">
-        <v>0.009372688028951477</v>
+        <v>0.00646579730555003</v>
       </c>
       <c r="Q7">
-        <v>63.01922173571933</v>
+        <v>52.39310295615066</v>
       </c>
       <c r="R7">
-        <v>567.1729956214739</v>
+        <v>471.5379266053559</v>
       </c>
       <c r="S7">
-        <v>0.006298240382649934</v>
+        <v>0.00396835904201884</v>
       </c>
       <c r="T7">
-        <v>0.007110795329170268</v>
+        <v>0.004558257211695965</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>138.461282</v>
       </c>
       <c r="I8">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="J8">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>14.186264</v>
       </c>
       <c r="O8">
-        <v>0.03185546011821195</v>
+        <v>0.02672480471352731</v>
       </c>
       <c r="P8">
-        <v>0.03245973745503403</v>
+        <v>0.02693406118674866</v>
       </c>
       <c r="Q8">
         <v>218.2498111367165</v>
@@ -948,10 +948,10 @@
         <v>1964.248300230448</v>
       </c>
       <c r="S8">
-        <v>0.02181223023939489</v>
+        <v>0.01653067985242546</v>
       </c>
       <c r="T8">
-        <v>0.02462629170717959</v>
+        <v>0.01898797206948842</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>138.461282</v>
       </c>
       <c r="I9">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="J9">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.80666966666666</v>
+        <v>84.55360633333333</v>
       </c>
       <c r="N9">
-        <v>188.420009</v>
+        <v>253.660819</v>
       </c>
       <c r="O9">
-        <v>0.4230998437765317</v>
+        <v>0.4778591355164685</v>
       </c>
       <c r="P9">
-        <v>0.4311257723256207</v>
+        <v>0.4816007949398642</v>
       </c>
       <c r="Q9">
-        <v>2898.764000065726</v>
+        <v>3902.466910212217</v>
       </c>
       <c r="R9">
-        <v>26088.87600059154</v>
+        <v>35122.20219190996</v>
       </c>
       <c r="S9">
-        <v>0.2897070446466284</v>
+        <v>0.2955806962279175</v>
       </c>
       <c r="T9">
-        <v>0.3270830223590512</v>
+        <v>0.339518885754245</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>138.461282</v>
       </c>
       <c r="I10">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="J10">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.290399499999999</v>
+        <v>4.124113</v>
       </c>
       <c r="N10">
-        <v>16.580799</v>
+        <v>8.248226000000001</v>
       </c>
       <c r="O10">
-        <v>0.05584863441910307</v>
+        <v>0.02330764066032874</v>
       </c>
       <c r="P10">
-        <v>0.03793869776670523</v>
+        <v>0.01566009371925767</v>
       </c>
       <c r="Q10">
-        <v>382.633114354053</v>
+        <v>190.3433243642887</v>
       </c>
       <c r="R10">
-        <v>2295.798686124318</v>
+        <v>1142.059946185732</v>
       </c>
       <c r="S10">
-        <v>0.03824095674602508</v>
+        <v>0.01441698639153182</v>
       </c>
       <c r="T10">
-        <v>0.02878302510880325</v>
+        <v>0.01104005148295762</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>138.461282</v>
       </c>
       <c r="I11">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="J11">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>71.25284333333333</v>
+        <v>82.400874</v>
       </c>
       <c r="N11">
-        <v>213.75853</v>
+        <v>247.202622</v>
       </c>
       <c r="O11">
-        <v>0.4799978575996197</v>
+        <v>0.4656928559641855</v>
       </c>
       <c r="P11">
-        <v>0.4891031044236887</v>
+        <v>0.4693392528485795</v>
       </c>
       <c r="Q11">
-        <v>3288.586678026162</v>
+        <v>3803.110217320156</v>
       </c>
       <c r="R11">
-        <v>29597.28010223546</v>
+        <v>34227.9919558814</v>
       </c>
       <c r="S11">
-        <v>0.3286665377152575</v>
+        <v>0.2880552203851661</v>
       </c>
       <c r="T11">
-        <v>0.3710687968782971</v>
+        <v>0.3308747448969161</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="H12">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="I12">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="J12">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.365419</v>
+        <v>1.135186</v>
       </c>
       <c r="N12">
-        <v>4.096257</v>
+        <v>3.405558</v>
       </c>
       <c r="O12">
-        <v>0.009198204086533742</v>
+        <v>0.006415563145489937</v>
       </c>
       <c r="P12">
-        <v>0.009372688028951477</v>
+        <v>0.00646579730555003</v>
       </c>
       <c r="Q12">
-        <v>26.9118889480705</v>
+        <v>0.01057501438066667</v>
       </c>
       <c r="R12">
-        <v>161.471333688423</v>
+        <v>0.095175129426</v>
       </c>
       <c r="S12">
-        <v>0.002689616613434894</v>
+        <v>8.00972867976916E-07</v>
       </c>
       <c r="T12">
-        <v>0.002024408098147224</v>
+        <v>9.200378073580682E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="H13">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="I13">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="J13">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>14.186264</v>
       </c>
       <c r="O13">
-        <v>0.03185546011821195</v>
+        <v>0.02672480471352731</v>
       </c>
       <c r="P13">
-        <v>0.03245973745503403</v>
+        <v>0.02693406118674866</v>
       </c>
       <c r="Q13">
-        <v>93.20195518884934</v>
+        <v>0.04405150222311111</v>
       </c>
       <c r="R13">
-        <v>559.211731133096</v>
+        <v>0.3964635200080001</v>
       </c>
       <c r="S13">
-        <v>0.009314750353059722</v>
+        <v>3.336549417733504E-06</v>
       </c>
       <c r="T13">
-        <v>0.007010982886096854</v>
+        <v>3.832528832327242E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,25 +1275,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="H14">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="I14">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="J14">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>62.80666966666666</v>
+        <v>84.55360633333333</v>
       </c>
       <c r="N14">
-        <v>188.420009</v>
+        <v>253.660819</v>
       </c>
       <c r="O14">
-        <v>0.4230998437765317</v>
+        <v>0.4778591355164685</v>
       </c>
       <c r="P14">
-        <v>0.4311257723256207</v>
+        <v>0.4816007949398642</v>
       </c>
       <c r="Q14">
-        <v>1237.895561192192</v>
+        <v>0.7876732120658889</v>
       </c>
       <c r="R14">
-        <v>7427.37336715315</v>
+        <v>7.089058908593</v>
       </c>
       <c r="S14">
-        <v>0.1237172341749925</v>
+        <v>5.965995401863759E-05</v>
       </c>
       <c r="T14">
-        <v>0.09311891125790518</v>
+        <v>6.85284302089149E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="H15">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="I15">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="J15">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.290399499999999</v>
+        <v>4.124113</v>
       </c>
       <c r="N15">
-        <v>16.580799</v>
+        <v>8.248226000000001</v>
       </c>
       <c r="O15">
-        <v>0.05584863441910307</v>
+        <v>0.02330764066032874</v>
       </c>
       <c r="P15">
-        <v>0.03793869776670523</v>
+        <v>0.01566009371925767</v>
       </c>
       <c r="Q15">
-        <v>163.4006196479902</v>
+        <v>0.03841886200366667</v>
       </c>
       <c r="R15">
-        <v>653.6024785919609</v>
+        <v>0.230513172022</v>
       </c>
       <c r="S15">
-        <v>0.01633051556131293</v>
+        <v>2.909921913651933E-06</v>
       </c>
       <c r="T15">
-        <v>0.008194384231592744</v>
+        <v>2.22832198530573E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="H16">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="I16">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="J16">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>71.25284333333333</v>
+        <v>82.400874</v>
       </c>
       <c r="N16">
-        <v>213.75853</v>
+        <v>247.202622</v>
       </c>
       <c r="O16">
-        <v>0.4799978575996197</v>
+        <v>0.4656928559641855</v>
       </c>
       <c r="P16">
-        <v>0.4891031044236887</v>
+        <v>0.4693392528485795</v>
       </c>
       <c r="Q16">
-        <v>1404.366430393112</v>
+        <v>0.767619075226</v>
       </c>
       <c r="R16">
-        <v>8426.198582358669</v>
+        <v>6.908571677034001</v>
       </c>
       <c r="S16">
-        <v>0.1403545953174865</v>
+        <v>5.814101334194087E-05</v>
       </c>
       <c r="T16">
-        <v>0.1056414427073415</v>
+        <v>6.678369838894107E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="H17">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="I17">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="J17">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.365419</v>
+        <v>1.135186</v>
       </c>
       <c r="N17">
-        <v>4.096257</v>
+        <v>3.405558</v>
       </c>
       <c r="O17">
-        <v>0.009198204086533742</v>
+        <v>0.006415563145489937</v>
       </c>
       <c r="P17">
-        <v>0.009372688028951477</v>
+        <v>0.00646579730555003</v>
       </c>
       <c r="Q17">
-        <v>0.04139677324199999</v>
+        <v>31.152777148831</v>
       </c>
       <c r="R17">
-        <v>0.3725709591779999</v>
+        <v>186.916662892986</v>
       </c>
       <c r="S17">
-        <v>4.137258788081581E-06</v>
+        <v>0.002359574026108497</v>
       </c>
       <c r="T17">
-        <v>4.671018995543842E-06</v>
+        <v>0.001806883770202377</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="H18">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="I18">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="J18">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>14.186264</v>
       </c>
       <c r="O18">
-        <v>0.03185546011821195</v>
+        <v>0.02672480471352731</v>
       </c>
       <c r="P18">
-        <v>0.03245973745503403</v>
+        <v>0.02693406118674866</v>
       </c>
       <c r="Q18">
-        <v>0.143366383984</v>
+        <v>129.7706634174147</v>
       </c>
       <c r="R18">
-        <v>1.290297455856</v>
+        <v>778.6239805044881</v>
       </c>
       <c r="S18">
-        <v>1.432826246108225E-05</v>
+        <v>0.00982909116858912</v>
       </c>
       <c r="T18">
-        <v>1.617679472254787E-05</v>
+        <v>0.007526793019354318</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,25 +1585,25 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="H19">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="I19">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="J19">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>62.80666966666666</v>
+        <v>84.55360633333333</v>
       </c>
       <c r="N19">
-        <v>188.420009</v>
+        <v>253.660819</v>
       </c>
       <c r="O19">
-        <v>0.4230998437765317</v>
+        <v>0.4778591355164685</v>
       </c>
       <c r="P19">
-        <v>0.4311257723256207</v>
+        <v>0.4816007949398642</v>
       </c>
       <c r="Q19">
-        <v>1.904172610954</v>
+        <v>2320.394768110529</v>
       </c>
       <c r="R19">
-        <v>17.137553498586</v>
+        <v>13922.36860866317</v>
       </c>
       <c r="S19">
-        <v>0.0001903060130469501</v>
+        <v>0.1757513687782762</v>
       </c>
       <c r="T19">
-        <v>0.0002148579645221337</v>
+        <v>0.1345845870155031</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,25 +1647,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="H20">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="I20">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="J20">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.290399499999999</v>
+        <v>4.124113</v>
       </c>
       <c r="N20">
-        <v>16.580799</v>
+        <v>8.248226000000001</v>
       </c>
       <c r="O20">
-        <v>0.05584863441910307</v>
+        <v>0.02330764066032874</v>
       </c>
       <c r="P20">
-        <v>0.03793869776670523</v>
+        <v>0.01566009371925767</v>
       </c>
       <c r="Q20">
-        <v>0.251348332041</v>
+        <v>113.1775525998355</v>
       </c>
       <c r="R20">
-        <v>1.508089992246</v>
+        <v>452.710210399342</v>
       </c>
       <c r="S20">
-        <v>2.512014860499389E-05</v>
+        <v>0.008572295567014032</v>
       </c>
       <c r="T20">
-        <v>1.890731638427334E-05</v>
+        <v>0.004376253668961525</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,25 +1709,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="H21">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="I21">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="J21">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>71.25284333333333</v>
+        <v>82.400874</v>
       </c>
       <c r="N21">
-        <v>213.75853</v>
+        <v>247.202622</v>
       </c>
       <c r="O21">
-        <v>0.4799978575996197</v>
+        <v>0.4656928559641855</v>
       </c>
       <c r="P21">
-        <v>0.4891031044236887</v>
+        <v>0.4693392528485795</v>
       </c>
       <c r="Q21">
-        <v>2.16024370418</v>
+        <v>2261.317585480179</v>
       </c>
       <c r="R21">
-        <v>19.44219333762</v>
+        <v>13567.90551288108</v>
       </c>
       <c r="S21">
-        <v>0.0002158981618511486</v>
+        <v>0.1712767440921919</v>
       </c>
       <c r="T21">
-        <v>0.0002437518334639473</v>
+        <v>0.1311580673837512</v>
       </c>
     </row>
   </sheetData>
